--- a/docs/4设计输出/v1.0_测试用例记录一览.xlsx
+++ b/docs/4设计输出/v1.0_测试用例记录一览.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="184">
   <si>
     <t>序号</t>
   </si>
@@ -631,6 +631,90 @@
   </si>
   <si>
     <t>点击“相关公司“中公司名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“重点关注确认”提示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“取消关注确认”提示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“重点关注”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弹出确认是否取消关注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弹出确认是否关注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录 - 登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户未输入用户名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入用户名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可登录，提示请输入用户名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户未输入密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可登录，提示请输入密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名不存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入未注册用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可登录，提示请输入用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可登录，提示请正确密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入存在的用户及正确的密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正确登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码输入错误</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +913,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -846,9 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -879,6 +957,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,11 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1234,24 +1315,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36">
+    <row r="2" spans="1:12">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>88</v>
+      <c r="B2" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -1262,22 +1343,22 @@
       <c r="K2" s="5"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="24">
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1288,22 +1369,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="24">
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1314,22 +1395,22 @@
       <c r="K4" s="5"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="24">
+    <row r="5" spans="1:12">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -1344,15 +1425,15 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -1366,16 +1447,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="24">
+    <row r="7" spans="1:12" ht="36">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -1396,12 +1479,12 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1422,12 +1505,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>35</v>
@@ -1444,16 +1527,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="36">
+    <row r="10" spans="1:12" ht="24">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -1470,16 +1553,16 @@
       <c r="K10" s="5"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="36">
+    <row r="11" spans="1:12" ht="24">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>35</v>
@@ -1496,18 +1579,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="48">
+    <row r="12" spans="1:12" ht="24">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -1524,19 +1605,19 @@
       <c r="K12" s="5"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="36">
+    <row r="13" spans="1:12" ht="24">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -1550,21 +1631,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="36">
+    <row r="14" spans="1:12" ht="24">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -1576,21 +1655,21 @@
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" ht="24">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -1602,21 +1681,21 @@
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" ht="24">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="36">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -1628,21 +1707,23 @@
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" ht="24">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="48">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1654,21 +1735,21 @@
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" ht="24">
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="36">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -1680,21 +1761,23 @@
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" ht="24">
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="36">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C19" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -1706,21 +1789,21 @@
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="24">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -1732,7 +1815,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="8"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="24">
       <c r="A21" s="5">
@@ -1740,13 +1823,13 @@
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -1758,21 +1841,21 @@
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="24">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
@@ -1784,21 +1867,21 @@
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="24">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -1810,7 +1893,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="24">
       <c r="A24" s="5">
@@ -1818,13 +1901,13 @@
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
@@ -1836,21 +1919,21 @@
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="24">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -1862,21 +1945,21 @@
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="24">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -1888,7 +1971,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="24">
       <c r="A27" s="5">
@@ -1896,13 +1979,13 @@
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
@@ -1914,21 +1997,21 @@
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="24">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -1940,21 +2023,21 @@
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="24">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -1966,7 +2049,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="8"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" ht="24">
       <c r="A30" s="5">
@@ -1974,13 +2057,13 @@
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -1992,21 +2075,21 @@
       <c r="I30" s="9"/>
       <c r="J30" s="8"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="24">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -2018,21 +2101,21 @@
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="24">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
@@ -2044,21 +2127,21 @@
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="24">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
@@ -2070,21 +2153,21 @@
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" ht="24">
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -2096,23 +2179,21 @@
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12" ht="48">
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="24">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
@@ -2124,17 +2205,21 @@
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="24">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
@@ -2146,17 +2231,21 @@
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" ht="24">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
@@ -2168,17 +2257,21 @@
       <c r="I37" s="9"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" ht="36">
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" ht="24">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
@@ -2190,17 +2283,21 @@
       <c r="I38" s="9"/>
       <c r="J38" s="8"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" ht="24">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
@@ -2212,21 +2309,23 @@
       <c r="I39" s="9"/>
       <c r="J39" s="8"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" ht="48">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>94</v>
+      <c r="B40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
@@ -2238,21 +2337,17 @@
       <c r="I40" s="9"/>
       <c r="J40" s="8"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" ht="24">
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
@@ -2264,21 +2359,17 @@
       <c r="I41" s="9"/>
       <c r="J41" s="8"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" ht="24">
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
@@ -2290,21 +2381,17 @@
       <c r="I42" s="9"/>
       <c r="J42" s="8"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" ht="24">
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" ht="36">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
@@ -2316,21 +2403,17 @@
       <c r="I43" s="9"/>
       <c r="J43" s="8"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" ht="24">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
@@ -2342,21 +2425,21 @@
       <c r="I44" s="9"/>
       <c r="J44" s="8"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
+      <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="7" t="s">
-        <v>115</v>
+      <c r="B45" s="22"/>
+      <c r="C45" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
@@ -2368,21 +2451,21 @@
       <c r="I45" s="9"/>
       <c r="J45" s="8"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="24">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
@@ -2394,21 +2477,21 @@
       <c r="I46" s="9"/>
       <c r="J46" s="8"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="24">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="7" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
@@ -2420,21 +2503,21 @@
       <c r="I47" s="9"/>
       <c r="J47" s="8"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
+      <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:12" ht="24">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="7" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2446,21 +2529,21 @@
       <c r="I48" s="9"/>
       <c r="J48" s="8"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2472,23 +2555,21 @@
       <c r="I49" s="9"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" s="20" customFormat="1" ht="36">
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>135</v>
-      </c>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2496,25 +2577,25 @@
       <c r="G50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" spans="1:12" s="20" customFormat="1" ht="24">
+      <c r="H50" s="14"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" ht="24">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2522,25 +2603,25 @@
       <c r="G51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" s="20" customFormat="1" ht="24">
+      <c r="H51" s="14"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2548,25 +2629,25 @@
       <c r="G52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" s="20" customFormat="1" ht="24">
+      <c r="H52" s="14"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2574,25 +2655,25 @@
       <c r="G53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" s="20" customFormat="1" ht="24">
+      <c r="H53" s="14"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2600,25 +2681,25 @@
       <c r="G54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="16"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="15"/>
     </row>
     <row r="55" spans="1:12" ht="24">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2626,25 +2707,25 @@
       <c r="G55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="16"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="15"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2656,21 +2737,23 @@
       <c r="I56" s="9"/>
       <c r="J56" s="8"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" spans="1:12" ht="24">
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:12" s="19" customFormat="1" ht="36">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="C57" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
@@ -2678,25 +2761,25 @@
       <c r="G57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" ht="24">
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="1:12" s="19" customFormat="1" ht="24">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -2704,25 +2787,25 @@
       <c r="G58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" spans="1:12" ht="24">
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" s="19" customFormat="1" ht="24">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
@@ -2730,53 +2813,51 @@
       <c r="G59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" ht="36">
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="1:12" s="19" customFormat="1" ht="24">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="B60" s="27"/>
+      <c r="C60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="19"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="1:12" ht="24">
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="1:12" s="19" customFormat="1" ht="24">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="7" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
@@ -2784,25 +2865,25 @@
       <c r="G61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="19"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="16"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:12" ht="24">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
@@ -2810,25 +2891,25 @@
       <c r="G62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="19"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="16"/>
+      <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="7" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
@@ -2836,25 +2917,25 @@
       <c r="G63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="16"/>
-    </row>
-    <row r="64" spans="1:12" s="2" customFormat="1">
+      <c r="H63" s="14"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="1:12" ht="24">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="28" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>11</v>
@@ -2862,21 +2943,25 @@
       <c r="G64" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="16"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="H64" s="14"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="1:12" ht="24">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E65" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>11</v>
@@ -2884,21 +2969,25 @@
       <c r="G65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="H65" s="14"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="1:12" ht="24">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
@@ -2906,43 +2995,53 @@
       <c r="G66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="16"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="H66" s="14"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="1:12" s="2" customFormat="1" ht="36">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="B67" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="19"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="16"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="1:12" ht="24">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E68" s="7" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
@@ -2950,21 +3049,25 @@
       <c r="G68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="19"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="16"/>
-    </row>
-    <row r="69" spans="1:12" ht="24">
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="30"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E69" s="7" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
@@ -2972,25 +3075,25 @@
       <c r="G69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="16"/>
-    </row>
-    <row r="70" spans="1:12" ht="24">
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>159</v>
+      <c r="B70" s="27"/>
+      <c r="C70" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>11</v>
@@ -2998,21 +3101,25 @@
       <c r="G70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="1:12" ht="24">
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="1:12" s="2" customFormat="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="E71" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>11</v>
@@ -3020,25 +3127,21 @@
       <c r="G71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="16"/>
+      <c r="L71" s="15"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
@@ -3046,25 +3149,21 @@
       <c r="G72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="16"/>
-    </row>
-    <row r="73" spans="1:12" ht="24">
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
@@ -3072,25 +3171,21 @@
       <c r="G73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="19"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="18"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="16"/>
+      <c r="L73" s="15"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>11</v>
@@ -3098,163 +3193,235 @@
       <c r="G74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="18"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="16"/>
-    </row>
-    <row r="75" spans="1:12" ht="24">
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="1:12" ht="24">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="1:12" ht="24">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="15"/>
+    </row>
+    <row r="78" spans="1:12" ht="24">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="15"/>
+    </row>
+    <row r="80" spans="1:12" ht="24">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="15"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="15"/>
+    </row>
+    <row r="82" spans="1:12" ht="24">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="17"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="16"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="16"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="16"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="16"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="16"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="16"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="19"/>
+      <c r="F82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="18"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="16"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="19"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="83" spans="1:12" s="3" customFormat="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="18"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="19"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="18"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7"/>
@@ -3264,25 +3431,25 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="19"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="18"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="15"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="18"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7"/>
@@ -3292,11 +3459,11 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="19"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7"/>
@@ -3306,11 +3473,11 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="19"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="18"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7"/>
@@ -3320,11 +3487,11 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="19"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="15"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="7"/>
@@ -3334,11 +3501,11 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="19"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="15"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7"/>
@@ -3348,245 +3515,63 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="19"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="18"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="19"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="19"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="18"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="16"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="16"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="16"/>
-    </row>
-    <row r="96" spans="1:12" s="3" customFormat="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="16"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="16"/>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="16"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="16"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="16"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="16"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="16"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="16"/>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="16"/>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B107" s="21"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B94" s="20"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="C94:L94"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J93">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F93">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
